--- a/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
+++ b/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$373</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -401,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,12 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +518,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -561,16 +560,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -597,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -679,6 +675,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -726,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,7 +760,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,23 +975,23 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1008,35 +1007,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1054,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1065,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -1093,26 +1092,26 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,67 +1145,67 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>364</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>41456</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="25">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>41880</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24">
+      <c r="K2" s="23"/>
+      <c r="L2" s="22">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>50.070666666666668</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="22">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-144.798</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="27">
         <v>41474</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="27">
         <v>41805</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
@@ -1218,29 +1217,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E3" sqref="E3:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625"/>
+    <col min="9" max="9" width="11.88671875"/>
+    <col min="10" max="10" width="14.44140625"/>
+    <col min="11" max="11" width="13.44140625"/>
+    <col min="12" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1259,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="12">
@@ -1277,7 +1276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
@@ -1290,91 +1289,91 @@
       <c r="D4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="30">
         <v>117</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>364</v>
       </c>
       <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="30">
         <v>700</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>364</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="30">
         <v>1.08</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>364</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="30">
         <v>3.9E-2</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="12">
@@ -1386,12 +1385,12 @@
       <c r="D8" s="12">
         <v>168</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="12">
@@ -1403,13 +1402,28 @@
       <c r="D9" s="12">
         <v>9066</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C10" s="15"/>
       <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
+++ b/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18264" windowHeight="8052" tabRatio="377" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -406,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +524,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,6 +598,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -1219,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,8 +1301,8 @@
       <c r="E4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="30">
-        <v>117</v>
+      <c r="F4" s="31">
+        <v>140</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>43</v>
@@ -1340,8 +1349,8 @@
       <c r="E6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="30">
-        <v>1.08</v>
+      <c r="F6" s="31">
+        <v>1.1299999999999999</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>43</v>

--- a/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
+++ b/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18264" windowHeight="8052" tabRatio="377" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="8055" tabRatio="377"/>
   </bookViews>
   <sheets>
-    <sheet name="Read Me" sheetId="3" r:id="rId1"/>
-    <sheet name="Moorings" sheetId="1" r:id="rId2"/>
-    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId3"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
+    <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Asset_Cal_Info!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$84</definedName>
@@ -41,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -85,133 +79,7 @@
     <t>Deployment Number</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>File Name Instruction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  Convention for naming this file is as follows:</t>
-    </r>
-  </si>
-  <si>
-    <t>Includes:</t>
-  </si>
-  <si>
-    <t>Guidance on data entry</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>NOTE:  Delete Guidance and Example prior to submission</t>
-  </si>
-  <si>
-    <t>_v#</t>
-  </si>
-  <si>
-    <t>0000#</t>
-  </si>
-  <si>
-    <t>Version number of this Excel workbook; e.g., v1, v2.</t>
-  </si>
-  <si>
-    <t>NOTE:  Delete Guidance prior to submission</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Asset Cal Info Spreadsheet Instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  Convention for completing this spreadsheet appears embedded at the bottom of each column on the spreadsheet.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tab names, column names, number formatting must be same format as this sample. This is read by code that is pretty finicky.</t>
-  </si>
-  <si>
-    <t>Readme must be deleted when done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE:  The use of DO NOT CHANGE as guidance in this template is not absolute.  There may be instances where a change is necessary; e.g., an instrument is added/deleted/changed.  Please be careful! </t>
-  </si>
-  <si>
-    <t>Omaha_Cal_Info_CP05MOAS_0000#_v#, where:</t>
-  </si>
-  <si>
     <t>Melville 130</t>
-  </si>
-  <si>
-    <r>
-      <t>Unique identifier number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/deployment number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> of a particular CP05MOAS Glider set; e.g., 00001, 00002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gliders Spreadsheet Instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>:  Convention for completing this spreadsheet is embedded in that spreadsheet.</t>
-    </r>
   </si>
   <si>
     <t>Mooring Serial Number</t>
@@ -291,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,37 +176,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -406,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,24 +258,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -520,11 +343,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,71 +359,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,149 +791,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,69 +850,69 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="L1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17">
         <v>364</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="18">
         <v>41456</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>0</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>41880</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="22">
+      <c r="G2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>50.070666666666668</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="16">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-144.798</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="21">
         <v>41474</v>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="21">
         <v>41805</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1224,215 +920,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625"/>
-    <col min="9" max="9" width="11.88671875"/>
-    <col min="10" max="10" width="14.44140625"/>
-    <col min="11" max="11" width="13.44140625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="14.42578125"/>
+    <col min="11" max="11" width="13.42578125"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6">
         <v>364</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>364</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9">
         <v>364</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="25">
         <v>140</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15">
         <v>364</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="D5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="24">
         <v>700</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15">
         <v>364</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="25">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15">
         <v>364</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="24">
         <v>3.9E-2</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
         <v>364</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>168</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
         <v>364</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>9066</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
+++ b/GP05MOAS-GL002/Omaha_Cal_Info_GP05MOAS-GL002_00001.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$373</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -100,36 +100,21 @@
     <t>Requires Lat and Lon from glider engineering (PD1382/1391); Seabird Pumped CTD</t>
   </si>
   <si>
-    <t>GP05MOAS-GL002-04-CTDGVM000</t>
-  </si>
-  <si>
     <t>Requires Lat, Lon, pressure, and temperature from glider engineering (PD1382/1391 1527/1528) and PRACSAL_L2 (PD1560); AADI DOSTA - Anderaa Optode</t>
   </si>
   <si>
-    <t>GP05MOAS-GL002-02-DOSTAM000</t>
-  </si>
-  <si>
     <t>Default value per &lt;flo_scat_seawater(degC, psu, theta=117.0, wlngth=700.0, delta=0.039)&gt;</t>
   </si>
   <si>
     <t>FLBBSLC-3123</t>
   </si>
   <si>
-    <t>GP05MOAS-GL002-01-FLORDM000</t>
-  </si>
-  <si>
     <t>Default value per &lt;flo_bback_total(beta, degC=20.0, psu=32.0, theta=117.0, wlngth=700.0, xfactor=1.08)&gt;</t>
   </si>
   <si>
     <t>OpenOceanGlider_364_Factory_Configs_Calibrations_2013-05-24.pdf</t>
   </si>
   <si>
-    <t>GP05MOAS-GL002-00-ENG000000</t>
-  </si>
-  <si>
-    <t>GP05MOAS-GL002</t>
-  </si>
-  <si>
     <t>50° 04.24' N</t>
   </si>
   <si>
@@ -149,6 +134,21 @@
   </si>
   <si>
     <t>Data End</t>
+  </si>
+  <si>
+    <t>GP05MOAS-GL364</t>
+  </si>
+  <si>
+    <t>GP05MOAS-GL364-00-ENG000000</t>
+  </si>
+  <si>
+    <t>GP05MOAS-GL364-01-FLORDM000</t>
+  </si>
+  <si>
+    <t>GP05MOAS-GL364-02-DOSTAM000</t>
+  </si>
+  <si>
+    <t>GP05MOAS-GL364-04-CTDGVM000</t>
   </si>
 </sst>
 </file>
@@ -851,21 +851,21 @@
         <v>9</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="17">
         <v>364</v>
@@ -883,13 +883,13 @@
         <v>41880</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>14</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6">
         <v>364</v>
@@ -978,12 +978,12 @@
         <v>364</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9">
         <v>364</v>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>16</v>
@@ -1001,13 +1001,13 @@
         <v>140</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5" s="15">
         <v>364</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>17</v>
@@ -1025,13 +1025,13 @@
         <v>700</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B6" s="15">
         <v>364</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>18</v>
@@ -1049,13 +1049,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B7" s="15">
         <v>364</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>19</v>
@@ -1073,13 +1073,13 @@
         <v>3.9E-2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6">
         <v>364</v>
@@ -1091,12 +1091,12 @@
         <v>168</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6">
         <v>364</v>
